--- a/www/data-entry-template/GLATAR_data_entry_template_v12_test.xlsx
+++ b/www/data-entry-template/GLATAR_data_entry_template_v12_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benhlina/Library/CloudStorage/Dropbox/GitHub/GLATAR-App/www/data-entry-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342B8231-07ED-B144-92B8-75C91043EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8691E5-AAF4-EB4E-A970-D01AD868DDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="19460" activeTab="2" xr2:uid="{DE6F8925-643B-304C-8933-23D4A9123DA3}"/>
   </bookViews>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="259">
   <si>
     <t>Field Name</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>month (e.g., 3)</t>
-  </si>
-  <si>
-    <t>sex (male, female, or unknown)</t>
   </si>
   <si>
     <t xml:space="preserve">age </t>
@@ -987,9 +984,6 @@
     <t>winter</t>
   </si>
   <si>
-    <t>lake trout</t>
-  </si>
-  <si>
     <t xml:space="preserve">burbot </t>
   </si>
   <si>
@@ -999,12 +993,6 @@
     <t xml:space="preserve">cisco </t>
   </si>
   <si>
-    <t>salvelinus namaycush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lota lota </t>
-  </si>
-  <si>
     <t>Coregonus clupeaformis</t>
   </si>
   <si>
@@ -1060,6 +1048,27 @@
   </si>
   <si>
     <t>longitude (i.e., ddd.ddddd)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2025-13-03</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>sex (e.g., male, female, or unknown)</t>
+  </si>
+  <si>
+    <t>lake tout</t>
+  </si>
+  <si>
+    <t>salvesins  namaycush</t>
+  </si>
+  <si>
+    <t>lotsa lotsas</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -1777,7 +1786,7 @@
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -1799,13 +1808,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>21</v>
@@ -1813,234 +1822,234 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>43</v>
@@ -2051,69 +2060,69 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -2121,83 +2130,83 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>44</v>
@@ -2205,13 +2214,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>14</v>
@@ -2219,7 +2228,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>16</v>
@@ -2228,26 +2237,26 @@
         <v>53</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B37" s="39" t="s">
         <v>9</v>
@@ -2261,97 +2270,97 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>15</v>
@@ -2359,16 +2368,16 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2376,13 +2385,13 @@
         <v>19</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2407,7 +2416,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>64</v>
@@ -2435,7 +2444,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>66</v>
@@ -2449,7 +2458,7 @@
         <v>25</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>29</v>
@@ -2463,10 +2472,10 @@
         <v>26</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2474,13 +2483,13 @@
         <v>31</v>
       </c>
       <c r="B53" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.2">
@@ -2488,13 +2497,13 @@
         <v>31</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2502,13 +2511,13 @@
         <v>31</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2516,13 +2525,13 @@
         <v>31</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2530,13 +2539,13 @@
         <v>31</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2544,13 +2553,13 @@
         <v>31</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2558,13 +2567,13 @@
         <v>31</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2572,13 +2581,13 @@
         <v>31</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2586,13 +2595,13 @@
         <v>31</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2600,13 +2609,13 @@
         <v>31</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2740,13 +2749,13 @@
         <v>42</v>
       </c>
       <c r="B72" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2782,12 +2791,12 @@
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
       <c r="D1" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2811,49 +2820,49 @@
         <v>17</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="J4" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="K4" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="N4" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="O4" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="P4" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2874,13 +2883,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99CF4A-5D49-794D-A1CB-3B08F37AF445}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BA9"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F26" activeCellId="1" sqref="E5 F26"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2916,12 +2925,12 @@
   <sheetData>
     <row r="1" spans="1:53" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
       <c r="D1" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -2942,7 +2951,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA4" t="s">
         <v>19</v>
@@ -2962,43 +2971,43 @@
         <v>17</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="O5" s="24" t="s">
         <v>8</v>
@@ -3007,37 +3016,37 @@
         <v>16</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S5" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="V5" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="Y5" s="23" t="s">
         <v>11</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA5" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB5" s="24" t="s">
         <v>20</v>
@@ -3052,40 +3061,40 @@
         <v>24</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG5" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AH5" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AJ5" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK5" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN5" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP5" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="AM5" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN5" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO5" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP5" s="25" t="s">
+      <c r="AQ5" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="AQ5" s="25" t="s">
-        <v>175</v>
       </c>
       <c r="AR5" s="24" t="s">
         <v>32</v>
@@ -3115,12 +3124,12 @@
         <v>41</v>
       </c>
       <c r="BA5" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3135,144 +3144,153 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6">
         <v>2025</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="O6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S6">
         <v>723</v>
       </c>
       <c r="T6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U6" s="12">
         <v>6534</v>
       </c>
       <c r="V6" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH6" t="s">
         <v>243</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>247</v>
       </c>
       <c r="AJ6">
         <v>3.23</v>
       </c>
       <c r="AK6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL6">
         <v>40202</v>
       </c>
       <c r="AM6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AR6">
         <v>82.23</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
-        <v>45692</v>
+      <c r="D7" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G7">
         <v>2025</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
+        <v>258</v>
+      </c>
+      <c r="N7" t="s">
+        <v>235</v>
+      </c>
+      <c r="O7" t="s">
         <v>236</v>
       </c>
-      <c r="N7" t="s">
-        <v>239</v>
-      </c>
-      <c r="O7" t="s">
-        <v>240</v>
-      </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S7">
         <v>634</v>
       </c>
       <c r="T7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U7" s="12">
         <v>2313</v>
       </c>
       <c r="V7" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH7" t="s">
         <v>243</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>247</v>
       </c>
       <c r="AJ7">
         <v>4.2320000000000002</v>
       </c>
       <c r="AK7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL7">
         <v>2332</v>
       </c>
       <c r="AM7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AR7">
         <v>39.229999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>3</v>
       </c>
@@ -3283,70 +3301,76 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G8">
         <v>2025</v>
       </c>
       <c r="H8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" t="s">
         <v>233</v>
       </c>
-      <c r="I8" t="s">
+      <c r="N8" t="s">
+        <v>235</v>
+      </c>
+      <c r="O8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" t="s">
         <v>237</v>
-      </c>
-      <c r="N8" t="s">
-        <v>239</v>
-      </c>
-      <c r="O8" t="s">
-        <v>240</v>
-      </c>
-      <c r="P8" t="s">
-        <v>241</v>
       </c>
       <c r="S8">
         <v>503</v>
       </c>
       <c r="T8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U8" s="12">
         <v>3403</v>
       </c>
       <c r="V8" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH8" t="s">
         <v>243</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>247</v>
       </c>
       <c r="AJ8">
         <v>6.23</v>
       </c>
       <c r="AK8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL8">
         <v>2334</v>
       </c>
       <c r="AM8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AR8">
         <v>40.21</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9">
         <v>4</v>
       </c>
@@ -3357,67 +3381,541 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G9">
         <v>2025</v>
       </c>
       <c r="H9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" t="s">
         <v>234</v>
       </c>
-      <c r="I9" t="s">
-        <v>238</v>
-      </c>
       <c r="N9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S9">
         <v>243</v>
       </c>
       <c r="T9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U9" s="12">
         <v>300</v>
       </c>
       <c r="V9" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH9" t="s">
         <v>243</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>247</v>
       </c>
       <c r="AJ9">
         <v>4.3</v>
       </c>
       <c r="AK9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL9">
         <v>2332</v>
       </c>
       <c r="AM9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AR9">
         <v>60.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45695</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10">
+        <v>2026</v>
+      </c>
+      <c r="H10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" t="s">
+        <v>235</v>
+      </c>
+      <c r="O10" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" t="s">
+        <v>237</v>
+      </c>
+      <c r="S10">
+        <v>244</v>
+      </c>
+      <c r="T10" t="s">
+        <v>238</v>
+      </c>
+      <c r="U10" s="12">
+        <v>301</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ10">
+        <v>5.3</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL10">
+        <v>2333</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR10">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45696</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11">
+        <v>2027</v>
+      </c>
+      <c r="H11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" t="s">
+        <v>234</v>
+      </c>
+      <c r="N11" t="s">
+        <v>235</v>
+      </c>
+      <c r="O11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P11" t="s">
+        <v>237</v>
+      </c>
+      <c r="S11">
+        <v>245</v>
+      </c>
+      <c r="T11" t="s">
+        <v>238</v>
+      </c>
+      <c r="U11" s="12">
+        <v>302</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ11">
+        <v>6.3</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL11">
+        <v>2334</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR11">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11">
+        <v>45697</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12">
+        <v>2028</v>
+      </c>
+      <c r="H12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I12" t="s">
+        <v>234</v>
+      </c>
+      <c r="N12" t="s">
+        <v>235</v>
+      </c>
+      <c r="O12" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" t="s">
+        <v>237</v>
+      </c>
+      <c r="S12">
+        <v>246</v>
+      </c>
+      <c r="T12" t="s">
+        <v>238</v>
+      </c>
+      <c r="U12" s="12">
+        <v>303</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ12">
+        <v>7.3</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL12">
+        <v>2335</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR12">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>45698</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13">
+        <v>2029</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+      <c r="N13" t="s">
+        <v>235</v>
+      </c>
+      <c r="O13" t="s">
+        <v>236</v>
+      </c>
+      <c r="P13" t="s">
+        <v>237</v>
+      </c>
+      <c r="S13">
+        <v>247</v>
+      </c>
+      <c r="T13" t="s">
+        <v>238</v>
+      </c>
+      <c r="U13" s="12">
+        <v>304</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL13">
+        <v>2336</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR13">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11">
+        <v>45699</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14">
+        <v>2030</v>
+      </c>
+      <c r="H14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" t="s">
+        <v>234</v>
+      </c>
+      <c r="N14" t="s">
+        <v>235</v>
+      </c>
+      <c r="O14" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" t="s">
+        <v>237</v>
+      </c>
+      <c r="S14">
+        <v>248</v>
+      </c>
+      <c r="T14" t="s">
+        <v>238</v>
+      </c>
+      <c r="U14" s="12">
+        <v>305</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL14">
+        <v>2337</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR14">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11">
+        <v>45700</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15">
+        <v>2031</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" t="s">
+        <v>236</v>
+      </c>
+      <c r="P15" t="s">
+        <v>237</v>
+      </c>
+      <c r="S15">
+        <v>249</v>
+      </c>
+      <c r="T15" t="s">
+        <v>238</v>
+      </c>
+      <c r="U15" s="12">
+        <v>306</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ15">
+        <v>10.3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL15">
+        <v>2338</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR15">
+        <v>66.099999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/www/data-entry-template/GLATAR_data_entry_template_v12_test.xlsx
+++ b/www/data-entry-template/GLATAR_data_entry_template_v12_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benhlina/Library/CloudStorage/Dropbox/GitHub/GLATAR-App/www/data-entry-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8691E5-AAF4-EB4E-A970-D01AD868DDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A85FABF-5BA9-6D40-A6D6-3EEBF6517767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="19460" activeTab="2" xr2:uid="{DE6F8925-643B-304C-8933-23D4A9123DA3}"/>
+    <workbookView xWindow="-100" yWindow="660" windowWidth="34560" windowHeight="19460" activeTab="2" xr2:uid="{DE6F8925-643B-304C-8933-23D4A9123DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -1035,9 +1035,6 @@
     <t>scientific_name</t>
   </si>
   <si>
-    <t>date (e.g., 2025-03-20)</t>
-  </si>
-  <si>
     <t>user_sample_id (e.g., 1, 2, 3)</t>
   </si>
   <si>
@@ -1069,6 +1066,9 @@
   </si>
   <si>
     <t>lotsa lotsas</t>
+  </si>
+  <si>
+    <t>date (e.g., YYYY-MM-DD)</t>
   </si>
 </sst>
 </file>
@@ -2885,11 +2885,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="5" topLeftCell="AU6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="AV27" sqref="AV27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2974,10 +2974,10 @@
         <v>87</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>70</v>
@@ -2989,7 +2989,7 @@
         <v>163</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>246</v>
@@ -3007,7 +3007,7 @@
         <v>157</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O5" s="24" t="s">
         <v>8</v>
@@ -3061,10 +3061,10 @@
         <v>24</v>
       </c>
       <c r="AF5" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG5" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="AG5" s="28" t="s">
-        <v>251</v>
       </c>
       <c r="AH5" s="27" t="s">
         <v>73</v>
@@ -3150,13 +3150,13 @@
         <v>2025</v>
       </c>
       <c r="H6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" t="s">
         <v>256</v>
       </c>
-      <c r="I6" t="s">
-        <v>257</v>
-      </c>
       <c r="N6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O6" t="s">
         <v>236</v>
@@ -3218,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3233,7 +3233,7 @@
         <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N7" t="s">
         <v>235</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15">
         <v>1</v>
